--- a/biology/Médecine/Mrs._Fang/Mrs._Fang.xlsx
+++ b/biology/Médecine/Mrs._Fang/Mrs._Fang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mrs. Fang (方绣英, Fāng Xiùyīng) est un film documentaire chinois réalisé par Wang Bing, sorti en 2017.
-Il est présenté en sélection officielle au Festival international du film de Locarno 2017 où il remporte le Léopard d'or[1].
+Il est présenté en sélection officielle au Festival international du film de Locarno 2017 où il remporte le Léopard d'or.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le documentaire suit Fang Xiuying qui a souffert de la maladie d'Alzheimer les huit dernières années de sa vie.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Titre original : 方绣英, Fāng Xiùyīng
 Titre français : Mrs. Fang
@@ -584,7 +600,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2017 : Léopard d'or au Festival international du film de Locarno 2017.</t>
         </is>
